--- a/Code/Results/Cases/Case_0_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_76/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07923394737314027</v>
+        <v>0.02679002569074385</v>
       </c>
       <c r="D2">
-        <v>0.160313726543194</v>
+        <v>0.2318299200193223</v>
       </c>
       <c r="E2">
-        <v>0.07853942083656307</v>
+        <v>0.162938907540493</v>
       </c>
       <c r="F2">
-        <v>0.4246394970355638</v>
+        <v>1.004500738417136</v>
       </c>
       <c r="G2">
-        <v>0.2054888596644204</v>
+        <v>0.4721807277463057</v>
       </c>
       <c r="H2">
-        <v>0.2074129886332727</v>
+        <v>0.6335810609531052</v>
       </c>
       <c r="I2">
-        <v>0.2167745648353545</v>
+        <v>0.4738580892836488</v>
       </c>
       <c r="J2">
-        <v>0.0570883962325972</v>
+        <v>0.1586882765817705</v>
       </c>
       <c r="K2">
-        <v>3.70385960221887</v>
+        <v>1.250536817984766</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8245340345256977</v>
+        <v>0.3901111461669942</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8192076692504884</v>
+        <v>2.170523178034159</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06931829360274833</v>
+        <v>0.02357037927475858</v>
       </c>
       <c r="D3">
-        <v>0.1462611234181708</v>
+        <v>0.228962982107916</v>
       </c>
       <c r="E3">
-        <v>0.07498104038302245</v>
+        <v>0.1632560125944806</v>
       </c>
       <c r="F3">
-        <v>0.4175058528822149</v>
+        <v>1.013960101197725</v>
       </c>
       <c r="G3">
-        <v>0.2032222368235495</v>
+        <v>0.4788143987502309</v>
       </c>
       <c r="H3">
-        <v>0.2131609643993002</v>
+        <v>0.6411106823593258</v>
       </c>
       <c r="I3">
-        <v>0.2113752224881722</v>
+        <v>0.4785490190033599</v>
       </c>
       <c r="J3">
-        <v>0.05773918097555963</v>
+        <v>0.1605026073238101</v>
       </c>
       <c r="K3">
-        <v>3.232657486182347</v>
+        <v>1.096027920285394</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7181732394884506</v>
+        <v>0.3571328374326157</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8260446417112064</v>
+        <v>2.200075201232522</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0632275887958258</v>
+        <v>0.02158368407354061</v>
       </c>
       <c r="D4">
-        <v>0.1377481909449045</v>
+        <v>0.2272829819026896</v>
       </c>
       <c r="E4">
-        <v>0.07292432791066972</v>
+        <v>0.1635314992623407</v>
       </c>
       <c r="F4">
-        <v>0.4143999572258608</v>
+        <v>1.020462444954624</v>
       </c>
       <c r="G4">
-        <v>0.2027771395528433</v>
+        <v>0.4833321012252227</v>
       </c>
       <c r="H4">
-        <v>0.2172798458833256</v>
+        <v>0.6460864198051226</v>
       </c>
       <c r="I4">
-        <v>0.2088061537798538</v>
+        <v>0.4818082336998515</v>
       </c>
       <c r="J4">
-        <v>0.05830612581777928</v>
+        <v>0.1617136677624025</v>
       </c>
       <c r="K4">
-        <v>2.943143114491477</v>
+        <v>1.000794740260488</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6529211833142696</v>
+        <v>0.3368782997884523</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8334742751471538</v>
+        <v>2.219891462497358</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06074426914910447</v>
+        <v>0.02077166140531261</v>
       </c>
       <c r="D5">
-        <v>0.1343064083422689</v>
+        <v>0.2266186588779391</v>
       </c>
       <c r="E5">
-        <v>0.07211701080593969</v>
+        <v>0.1636640963411544</v>
       </c>
       <c r="F5">
-        <v>0.4134398385857168</v>
+        <v>1.023286658724381</v>
       </c>
       <c r="G5">
-        <v>0.2028212698920342</v>
+        <v>0.4852846602912066</v>
       </c>
       <c r="H5">
-        <v>0.2191010046126465</v>
+        <v>0.6482026930336389</v>
       </c>
       <c r="I5">
-        <v>0.2079374599367156</v>
+        <v>0.4832315644271006</v>
       </c>
       <c r="J5">
-        <v>0.05857753601637583</v>
+        <v>0.162231576708848</v>
       </c>
       <c r="K5">
-        <v>2.825087675327268</v>
+        <v>0.9618977914338132</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6263367079216451</v>
+        <v>0.3286235808157087</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8372763040614615</v>
+        <v>2.2283864212189</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06033181737366533</v>
+        <v>0.02063668020738163</v>
       </c>
       <c r="D6">
-        <v>0.1337365036952889</v>
+        <v>0.2265095768778167</v>
       </c>
       <c r="E6">
-        <v>0.07198477712701035</v>
+        <v>0.163687342713466</v>
       </c>
       <c r="F6">
-        <v>0.4132984448520105</v>
+        <v>1.023766150422261</v>
       </c>
       <c r="G6">
-        <v>0.2028418622715193</v>
+        <v>0.4856156120414994</v>
       </c>
       <c r="H6">
-        <v>0.2194118657591559</v>
+        <v>0.6485594503021019</v>
       </c>
       <c r="I6">
-        <v>0.2078037110367141</v>
+        <v>0.4834736521824823</v>
       </c>
       <c r="J6">
-        <v>0.05862499352244299</v>
+        <v>0.1623190479273333</v>
       </c>
       <c r="K6">
-        <v>2.805479317313285</v>
+        <v>0.9554337139689721</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6219225509465005</v>
+        <v>0.3272528588542656</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8379533131375183</v>
+        <v>2.229822333130556</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06319410405944126</v>
+        <v>0.02157274262954445</v>
       </c>
       <c r="D7">
-        <v>0.1377016655034424</v>
+        <v>0.2272739403257162</v>
       </c>
       <c r="E7">
-        <v>0.07291331722360539</v>
+        <v>0.1635332051539109</v>
       </c>
       <c r="F7">
-        <v>0.4143857906770592</v>
+        <v>1.020499827085025</v>
       </c>
       <c r="G7">
-        <v>0.2027768377720065</v>
+        <v>0.4833579827423833</v>
       </c>
       <c r="H7">
-        <v>0.2173038361476642</v>
+        <v>0.6461146018204289</v>
       </c>
       <c r="I7">
-        <v>0.2087937287806056</v>
+        <v>0.4818270440380878</v>
       </c>
       <c r="J7">
-        <v>0.05830962487424785</v>
+        <v>0.1617205537187623</v>
       </c>
       <c r="K7">
-        <v>2.941551319562478</v>
+        <v>1.000270517504816</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6525626396846391</v>
+        <v>0.3367669763140881</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8335224644590085</v>
+        <v>2.220004330001487</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07581510809374947</v>
+        <v>0.0256819531550434</v>
       </c>
       <c r="D8">
-        <v>0.1554433673868232</v>
+        <v>0.2308247872898335</v>
       </c>
       <c r="E8">
-        <v>0.07728502227658041</v>
+        <v>0.1630314908689314</v>
       </c>
       <c r="F8">
-        <v>0.4219062156203393</v>
+        <v>1.007618161075705</v>
       </c>
       <c r="G8">
-        <v>0.2045031459652193</v>
+        <v>0.4743755965954435</v>
       </c>
       <c r="H8">
-        <v>0.2092690846041094</v>
+        <v>0.63610409505538</v>
       </c>
       <c r="I8">
-        <v>0.2147522184071242</v>
+        <v>0.4753967958012559</v>
       </c>
       <c r="J8">
-        <v>0.05727699927233942</v>
+        <v>0.1592937065080875</v>
       </c>
       <c r="K8">
-        <v>3.541412368807812</v>
+        <v>1.197339402928662</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7878450763790781</v>
+        <v>0.3787417667015376</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8208707691928936</v>
+        <v>2.180365520408841</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1005796925806948</v>
+        <v>0.03366076766420179</v>
       </c>
       <c r="D9">
-        <v>0.1912343145535687</v>
+        <v>0.238421555118137</v>
       </c>
       <c r="E9">
-        <v>0.08694217235631641</v>
+        <v>0.1626878559824014</v>
       </c>
       <c r="F9">
-        <v>0.4474675914177269</v>
+        <v>0.9878716617470857</v>
       </c>
       <c r="G9">
-        <v>0.215992464297841</v>
+        <v>0.4602996963741646</v>
       </c>
       <c r="H9">
-        <v>0.1984549975116039</v>
+        <v>0.6192715918664433</v>
       </c>
       <c r="I9">
-        <v>0.232802733617131</v>
+        <v>0.4657995945620712</v>
       </c>
       <c r="J9">
-        <v>0.05666082233639358</v>
+        <v>0.1553053321431932</v>
       </c>
       <c r="K9">
-        <v>4.717578680064605</v>
+        <v>1.580793540683544</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.053927436160443</v>
+        <v>0.4609862174437609</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.823513258451726</v>
+        <v>2.115919426327793</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1188356371433343</v>
+        <v>0.03947307542422607</v>
       </c>
       <c r="D10">
-        <v>0.2182650536855846</v>
+        <v>0.2443850109013965</v>
       </c>
       <c r="E10">
-        <v>0.09479775909960964</v>
+        <v>0.162824899877819</v>
       </c>
       <c r="F10">
-        <v>0.473871880801866</v>
+        <v>0.976734169667381</v>
       </c>
       <c r="G10">
-        <v>0.2302430728413754</v>
+        <v>0.4521302698120166</v>
       </c>
       <c r="H10">
-        <v>0.1939088021884885</v>
+        <v>0.6086117563888322</v>
       </c>
       <c r="I10">
-        <v>0.2505985281481244</v>
+        <v>0.4605930244536225</v>
       </c>
       <c r="J10">
-        <v>0.05718540083900336</v>
+        <v>0.1528456993283243</v>
       </c>
       <c r="K10">
-        <v>5.583773192716251</v>
+        <v>1.86057213172711</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.250467799895631</v>
+        <v>0.521345545996553</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8448420990007577</v>
+        <v>2.076704727688849</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1271666137997016</v>
+        <v>0.04210619249512604</v>
       </c>
       <c r="D11">
-        <v>0.2307516204549671</v>
+        <v>0.2471800908597288</v>
       </c>
       <c r="E11">
-        <v>0.09856010272187632</v>
+        <v>0.1629716718827616</v>
       </c>
       <c r="F11">
-        <v>0.4877830658532787</v>
+        <v>0.9724011141706512</v>
       </c>
       <c r="G11">
-        <v>0.2381927773971029</v>
+        <v>0.448888640381405</v>
       </c>
       <c r="H11">
-        <v>0.192669919637467</v>
+        <v>0.6041332457214281</v>
       </c>
       <c r="I11">
-        <v>0.2598330208632262</v>
+        <v>0.4586266590234516</v>
       </c>
       <c r="J11">
-        <v>0.05766422601399057</v>
+        <v>0.1518291155635865</v>
       </c>
       <c r="K11">
-        <v>5.978804911421037</v>
+        <v>1.987405336701613</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.340244323923358</v>
+        <v>0.5487856039385832</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8593814236771209</v>
+        <v>2.060638543800309</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1303261978499393</v>
+        <v>0.04310167963352285</v>
       </c>
       <c r="D12">
-        <v>0.2355099215721452</v>
+        <v>0.2482502607645642</v>
       </c>
       <c r="E12">
-        <v>0.1000140335049302</v>
+        <v>0.163039374896357</v>
       </c>
       <c r="F12">
-        <v>0.4933457741729512</v>
+        <v>0.9708659119991339</v>
       </c>
       <c r="G12">
-        <v>0.2414324248649322</v>
+        <v>0.4477296380635636</v>
       </c>
       <c r="H12">
-        <v>0.1923282044226227</v>
+        <v>0.6024906868957274</v>
       </c>
       <c r="I12">
-        <v>0.2635074309101029</v>
+        <v>0.4579400081889347</v>
       </c>
       <c r="J12">
-        <v>0.05788258458954942</v>
+        <v>0.1514588901283496</v>
       </c>
       <c r="K12">
-        <v>6.12858246822077</v>
+        <v>2.035368082544608</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.374305463616608</v>
+        <v>0.5591733717291021</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8656386362780353</v>
+        <v>2.054810240842173</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1296454928482405</v>
+        <v>0.04288735631050145</v>
       </c>
       <c r="D13">
-        <v>0.234483763303075</v>
+        <v>0.248019260208082</v>
       </c>
       <c r="E13">
-        <v>0.09969956991581697</v>
+        <v>0.1630242549152783</v>
       </c>
       <c r="F13">
-        <v>0.49213427166017</v>
+        <v>0.9711918446676648</v>
       </c>
       <c r="G13">
-        <v>0.2407242073522369</v>
+        <v>0.4479761976196954</v>
       </c>
       <c r="H13">
-        <v>0.1923959954998935</v>
+        <v>0.6028420675223671</v>
       </c>
       <c r="I13">
-        <v>0.2627079581817213</v>
+        <v>0.4580853102746758</v>
       </c>
       <c r="J13">
-        <v>0.05783386831539872</v>
+        <v>0.1515379692396515</v>
       </c>
       <c r="K13">
-        <v>6.096316099784701</v>
+        <v>2.025041441051258</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.366966714681524</v>
+        <v>0.5569363319572886</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8642566793858037</v>
+        <v>2.056054090828837</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1274264517293489</v>
+        <v>0.042188124492057</v>
       </c>
       <c r="D14">
-        <v>0.2311424739940549</v>
+        <v>0.247267899774485</v>
       </c>
       <c r="E14">
-        <v>0.09867912070329865</v>
+        <v>0.1629769989739955</v>
       </c>
       <c r="F14">
-        <v>0.48823467485024</v>
+        <v>0.9722726942146735</v>
       </c>
       <c r="G14">
-        <v>0.238454601026497</v>
+        <v>0.4487919135123022</v>
       </c>
       <c r="H14">
-        <v>0.1926392039300922</v>
+        <v>0.6039970418031331</v>
       </c>
       <c r="I14">
-        <v>0.2601316774916782</v>
+        <v>0.4585690052435112</v>
       </c>
       <c r="J14">
-        <v>0.0576814333035145</v>
+        <v>0.1517983615138796</v>
       </c>
       <c r="K14">
-        <v>5.991123173245285</v>
+        <v>1.991352605456939</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.343045187561572</v>
+        <v>0.5496402793663577</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8598808133906175</v>
+        <v>2.060153919031194</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1260678855861812</v>
+        <v>0.04175961286885865</v>
       </c>
       <c r="D15">
-        <v>0.2290998120662238</v>
+        <v>0.2468091950217257</v>
       </c>
       <c r="E15">
-        <v>0.09805793405928753</v>
+        <v>0.1629496316865584</v>
       </c>
       <c r="F15">
-        <v>0.4858851242283748</v>
+        <v>0.9729485069776871</v>
       </c>
       <c r="G15">
-        <v>0.2370948233155588</v>
+        <v>0.4493004960735476</v>
       </c>
       <c r="H15">
-        <v>0.1928050226301394</v>
+        <v>0.6047114468850339</v>
       </c>
       <c r="I15">
-        <v>0.2585771703430666</v>
+        <v>0.4588728358929188</v>
       </c>
       <c r="J15">
-        <v>0.05759296288388072</v>
+        <v>0.1519597785314168</v>
       </c>
       <c r="K15">
-        <v>5.926715283940666</v>
+        <v>1.970708505240566</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.328401349917115</v>
+        <v>0.5451708025481139</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8573000601007124</v>
+        <v>2.0626984907977</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1182918045035848</v>
+        <v>0.03930077119944997</v>
       </c>
       <c r="D16">
-        <v>0.2174530688297835</v>
+        <v>0.2442039931078739</v>
       </c>
       <c r="E16">
-        <v>0.09455585356698393</v>
+        <v>0.1628170054538245</v>
       </c>
       <c r="F16">
-        <v>0.4730027992985129</v>
+        <v>0.977032117839812</v>
       </c>
       <c r="G16">
-        <v>0.2297545989207421</v>
+        <v>0.4523516931886604</v>
       </c>
       <c r="H16">
-        <v>0.1940071390006182</v>
+        <v>0.608911901299777</v>
       </c>
       <c r="I16">
-        <v>0.2500191051390175</v>
+        <v>0.4607296352192591</v>
       </c>
       <c r="J16">
-        <v>0.05715915159924734</v>
+        <v>0.1529141960243194</v>
       </c>
       <c r="K16">
-        <v>5.557980691450609</v>
+        <v>1.852274179597543</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.244609096512306</v>
+        <v>0.5195518625504718</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8439939472791309</v>
+        <v>2.077790422420961</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1135288782538595</v>
+        <v>0.0377895195409792</v>
       </c>
       <c r="D17">
-        <v>0.2103586417451453</v>
+        <v>0.2426267892749649</v>
       </c>
       <c r="E17">
-        <v>0.09245722283964852</v>
+        <v>0.162757255834574</v>
       </c>
       <c r="F17">
-        <v>0.465601449516214</v>
+        <v>0.9797252506570473</v>
       </c>
       <c r="G17">
-        <v>0.2256399998814302</v>
+        <v>0.45434527686065</v>
       </c>
       <c r="H17">
-        <v>0.1949626308157093</v>
+        <v>0.6115837249851666</v>
       </c>
       <c r="I17">
-        <v>0.2450702315200992</v>
+        <v>0.4619718189259032</v>
       </c>
       <c r="J17">
-        <v>0.05695626769069762</v>
+        <v>0.153525919922668</v>
       </c>
       <c r="K17">
-        <v>5.332059436595216</v>
+        <v>1.77950382438479</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.193307833430353</v>
+        <v>0.5038304809518053</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8371085451924358</v>
+        <v>2.087503376461427</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1107917732979757</v>
+        <v>0.03691926139219959</v>
       </c>
       <c r="D18">
-        <v>0.2062958487543369</v>
+        <v>0.2417273731553138</v>
       </c>
       <c r="E18">
-        <v>0.09126778517227763</v>
+        <v>0.1627308374296099</v>
       </c>
       <c r="F18">
-        <v>0.4615218227176427</v>
+        <v>0.9813432951427004</v>
       </c>
       <c r="G18">
-        <v>0.2234103093967263</v>
+        <v>0.4555365967101608</v>
       </c>
       <c r="H18">
-        <v>0.1955897318390285</v>
+        <v>0.6131553765818367</v>
       </c>
       <c r="I18">
-        <v>0.2423301151176602</v>
+        <v>0.462724131987013</v>
       </c>
       <c r="J18">
-        <v>0.05686202316680777</v>
+        <v>0.1538873965696617</v>
       </c>
       <c r="K18">
-        <v>5.202206331434468</v>
+        <v>1.737607054868874</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.163834718501974</v>
+        <v>0.4947863297692408</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8335999355960695</v>
+        <v>2.093256832218614</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1098654187737367</v>
+        <v>0.03662443207345234</v>
       </c>
       <c r="D19">
-        <v>0.204923227300128</v>
+        <v>0.2414241803112276</v>
       </c>
       <c r="E19">
-        <v>0.09086803085509843</v>
+        <v>0.162723258213088</v>
       </c>
       <c r="F19">
-        <v>0.4601703685458034</v>
+        <v>0.9819029874307788</v>
       </c>
       <c r="G19">
-        <v>0.2226783520523412</v>
+        <v>0.4559476197349142</v>
       </c>
       <c r="H19">
-        <v>0.1958151323167314</v>
+        <v>0.613693501564903</v>
       </c>
       <c r="I19">
-        <v>0.2414202205015705</v>
+        <v>0.4629853472453789</v>
       </c>
       <c r="J19">
-        <v>0.05683389574885567</v>
+        <v>0.1540114395734804</v>
       </c>
       <c r="K19">
-        <v>5.158254604359229</v>
+        <v>1.723414547939228</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.153861131214342</v>
+        <v>0.4917238755191136</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8324879137936279</v>
+        <v>2.095233484174358</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1140356436937395</v>
+        <v>0.03795050139204648</v>
       </c>
       <c r="D20">
-        <v>0.2111120022034925</v>
+        <v>0.2427938839448274</v>
       </c>
       <c r="E20">
-        <v>0.09267878554794606</v>
+        <v>0.1627627938210416</v>
       </c>
       <c r="F20">
-        <v>0.4663708197113152</v>
+        <v>0.9794314169782083</v>
       </c>
       <c r="G20">
-        <v>0.2260637067067748</v>
+        <v>0.4541284320090426</v>
       </c>
       <c r="H20">
-        <v>0.1948528357395318</v>
+        <v>0.6112956935233456</v>
       </c>
       <c r="I20">
-        <v>0.2455859448526283</v>
+        <v>0.4618356688171694</v>
       </c>
       <c r="J20">
-        <v>0.05697552407491102</v>
+        <v>0.1534598041346591</v>
       </c>
       <c r="K20">
-        <v>5.356099429183587</v>
+        <v>1.787254637615661</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.198765338851743</v>
+        <v>0.5055042220417363</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8377943660240987</v>
+        <v>2.086452145517967</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1280780982474994</v>
+        <v>0.0423935500747632</v>
       </c>
       <c r="D21">
-        <v>0.2321230585959171</v>
+        <v>0.2474882748683314</v>
       </c>
       <c r="E21">
-        <v>0.09897804141555966</v>
+        <v>0.1629905502955431</v>
       </c>
       <c r="F21">
-        <v>0.4893718991301483</v>
+        <v>0.9719523543909574</v>
       </c>
       <c r="G21">
-        <v>0.2391148651399533</v>
+        <v>0.4485504558625379</v>
       </c>
       <c r="H21">
-        <v>0.1925642415295101</v>
+        <v>0.6036563494008647</v>
       </c>
       <c r="I21">
-        <v>0.2608834622796721</v>
+        <v>0.4584253579069184</v>
       </c>
       <c r="J21">
-        <v>0.05772518122049775</v>
+        <v>0.1517214779894012</v>
       </c>
       <c r="K21">
-        <v>6.022015421174842</v>
+        <v>2.001249654824392</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.350069666417667</v>
+        <v>0.5517833984405911</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.861145251392287</v>
+        <v>2.058942757399976</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1372843130889549</v>
+        <v>0.04528789230201369</v>
       </c>
       <c r="D22">
-        <v>0.2460306532475443</v>
+        <v>0.2506246793177667</v>
       </c>
       <c r="E22">
-        <v>0.1032663023280023</v>
+        <v>0.163210060090119</v>
       </c>
       <c r="F22">
-        <v>0.5061341279799834</v>
+        <v>0.9676801326532427</v>
       </c>
       <c r="G22">
-        <v>0.2489902960925363</v>
+        <v>0.4453045107680893</v>
       </c>
       <c r="H22">
-        <v>0.1918154342730176</v>
+        <v>0.5989746185869436</v>
       </c>
       <c r="I22">
-        <v>0.2719229589463765</v>
+        <v>0.4565344762192396</v>
       </c>
       <c r="J22">
-        <v>0.05843229283886586</v>
+        <v>0.1506712644024617</v>
       </c>
       <c r="K22">
-        <v>6.45834690616374</v>
+        <v>2.140720301982356</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.449339077169697</v>
+        <v>0.5820106471873316</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8808153830367615</v>
+        <v>2.042454001770821</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1323677945204764</v>
+        <v>0.0437440067165511</v>
       </c>
       <c r="D23">
-        <v>0.2385909410497931</v>
+        <v>0.2489444993508982</v>
       </c>
       <c r="E23">
-        <v>0.1009611816879428</v>
+        <v>0.163086444126499</v>
       </c>
       <c r="F23">
-        <v>0.4970220028480412</v>
+        <v>0.9699039006028869</v>
       </c>
       <c r="G23">
-        <v>0.2435900808231182</v>
+        <v>0.4470002808715066</v>
       </c>
       <c r="H23">
-        <v>0.1921438927086569</v>
+        <v>0.6014448716034977</v>
       </c>
       <c r="I23">
-        <v>0.2659308864467533</v>
+        <v>0.4575127055973169</v>
       </c>
       <c r="J23">
-        <v>0.05803415336521667</v>
+        <v>0.1512239183044564</v>
       </c>
       <c r="K23">
-        <v>6.22535072632536</v>
+        <v>2.066318643445015</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.396317975466886</v>
+        <v>0.5658797327065912</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8698941491327901</v>
+        <v>2.051117779431749</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1138065314886632</v>
+        <v>0.03787772591526561</v>
       </c>
       <c r="D24">
-        <v>0.2107713586458715</v>
+        <v>0.2427183175767169</v>
       </c>
       <c r="E24">
-        <v>0.09257856396084208</v>
+        <v>0.162760265387444</v>
       </c>
       <c r="F24">
-        <v>0.4660224423998329</v>
+        <v>0.9795640420035028</v>
       </c>
       <c r="G24">
-        <v>0.2258717270871387</v>
+        <v>0.4542263268484135</v>
       </c>
       <c r="H24">
-        <v>0.1949022324508078</v>
+        <v>0.6114258017068579</v>
       </c>
       <c r="I24">
-        <v>0.2453524646518588</v>
+        <v>0.4618971034107204</v>
       </c>
       <c r="J24">
-        <v>0.05696674869162166</v>
+        <v>0.1534896645938026</v>
       </c>
       <c r="K24">
-        <v>5.345230852073882</v>
+        <v>1.783750682001539</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.196297937151741</v>
+        <v>0.5047475414626774</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.837482909277071</v>
+        <v>2.086926879567216</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09387342840034307</v>
+        <v>0.0315109216842302</v>
       </c>
       <c r="D25">
-        <v>0.1814323979483845</v>
+        <v>0.2362990283982924</v>
       </c>
       <c r="E25">
-        <v>0.08420366372817512</v>
+        <v>0.1627123588362167</v>
       </c>
       <c r="F25">
-        <v>0.4392920226792185</v>
+        <v>0.9926223695293288</v>
       </c>
       <c r="G25">
-        <v>0.2119301349347467</v>
+        <v>0.4637272238860888</v>
       </c>
       <c r="H25">
-        <v>0.2008129605722857</v>
+        <v>0.6235255498984031</v>
       </c>
       <c r="I25">
-        <v>0.2271729674715672</v>
+        <v>0.4680725519228268</v>
       </c>
       <c r="J25">
-        <v>0.0566648922589188</v>
+        <v>0.1563017041857329</v>
       </c>
       <c r="K25">
-        <v>4.399198665964775</v>
+        <v>1.477392217004478</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9818042435652004</v>
+        <v>0.438746714777821</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.819595273929707</v>
+        <v>2.13192790136506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_76/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02679002569074385</v>
+        <v>0.07923394737301237</v>
       </c>
       <c r="D2">
-        <v>0.2318299200193223</v>
+        <v>0.1603137265432508</v>
       </c>
       <c r="E2">
-        <v>0.162938907540493</v>
+        <v>0.07853942083656307</v>
       </c>
       <c r="F2">
-        <v>1.004500738417136</v>
+        <v>0.4246394970355638</v>
       </c>
       <c r="G2">
-        <v>0.4721807277463057</v>
+        <v>0.2054888596644133</v>
       </c>
       <c r="H2">
-        <v>0.6335810609531052</v>
+        <v>0.2074129886332727</v>
       </c>
       <c r="I2">
-        <v>0.4738580892836488</v>
+        <v>0.2167745648353474</v>
       </c>
       <c r="J2">
-        <v>0.1586882765817705</v>
+        <v>0.0570883962326576</v>
       </c>
       <c r="K2">
-        <v>1.250536817984766</v>
+        <v>3.703859602218813</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3901111461669942</v>
+        <v>0.8245340345256977</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.170523178034159</v>
+        <v>0.8192076692504884</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02357037927475858</v>
+        <v>0.06931829360274833</v>
       </c>
       <c r="D3">
-        <v>0.228962982107916</v>
+        <v>0.146261123418185</v>
       </c>
       <c r="E3">
-        <v>0.1632560125944806</v>
+        <v>0.07498104038305087</v>
       </c>
       <c r="F3">
-        <v>1.013960101197725</v>
+        <v>0.4175058528821936</v>
       </c>
       <c r="G3">
-        <v>0.4788143987502309</v>
+        <v>0.2032222368235921</v>
       </c>
       <c r="H3">
-        <v>0.6411106823593258</v>
+        <v>0.2131609643993002</v>
       </c>
       <c r="I3">
-        <v>0.4785490190033599</v>
+        <v>0.2113752224881722</v>
       </c>
       <c r="J3">
-        <v>0.1605026073238101</v>
+        <v>0.05773918097549924</v>
       </c>
       <c r="K3">
-        <v>1.096027920285394</v>
+        <v>3.232657486182347</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3571328374326157</v>
+        <v>0.7181732394884435</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.200075201232522</v>
+        <v>0.8260446417111922</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02158368407354061</v>
+        <v>0.06322758879581869</v>
       </c>
       <c r="D4">
-        <v>0.2272829819026896</v>
+        <v>0.1377481909448619</v>
       </c>
       <c r="E4">
-        <v>0.1635314992623407</v>
+        <v>0.07292432791067327</v>
       </c>
       <c r="F4">
-        <v>1.020462444954624</v>
+        <v>0.4143999572258323</v>
       </c>
       <c r="G4">
-        <v>0.4833321012252227</v>
+        <v>0.2027771395528291</v>
       </c>
       <c r="H4">
-        <v>0.6460864198051226</v>
+        <v>0.2172798458833256</v>
       </c>
       <c r="I4">
-        <v>0.4818082336998515</v>
+        <v>0.208806153779836</v>
       </c>
       <c r="J4">
-        <v>0.1617136677624025</v>
+        <v>0.05830612581779349</v>
       </c>
       <c r="K4">
-        <v>1.000794740260488</v>
+        <v>2.943143114491505</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3368782997884523</v>
+        <v>0.6529211833142838</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.219891462497358</v>
+        <v>0.8334742751471111</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02077166140531261</v>
+        <v>0.06074426914893394</v>
       </c>
       <c r="D5">
-        <v>0.2266186588779391</v>
+        <v>0.1343064083422547</v>
       </c>
       <c r="E5">
-        <v>0.1636640963411544</v>
+        <v>0.07211701080595745</v>
       </c>
       <c r="F5">
-        <v>1.023286658724381</v>
+        <v>0.4134398385857168</v>
       </c>
       <c r="G5">
-        <v>0.4852846602912066</v>
+        <v>0.2028212698920342</v>
       </c>
       <c r="H5">
-        <v>0.6482026930336389</v>
+        <v>0.2191010046127602</v>
       </c>
       <c r="I5">
-        <v>0.4832315644271006</v>
+        <v>0.207937459936705</v>
       </c>
       <c r="J5">
-        <v>0.162231576708848</v>
+        <v>0.05857753601637938</v>
       </c>
       <c r="K5">
-        <v>0.9618977914338132</v>
+        <v>2.825087675327268</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3286235808157087</v>
+        <v>0.6263367079216451</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.2283864212189</v>
+        <v>0.8372763040614757</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02063668020738163</v>
+        <v>0.06033181737419113</v>
       </c>
       <c r="D6">
-        <v>0.2265095768778167</v>
+        <v>0.1337365036952889</v>
       </c>
       <c r="E6">
-        <v>0.163687342713466</v>
+        <v>0.07198477712701035</v>
       </c>
       <c r="F6">
-        <v>1.023766150422261</v>
+        <v>0.4132984448520318</v>
       </c>
       <c r="G6">
-        <v>0.4856156120414994</v>
+        <v>0.2028418622715122</v>
       </c>
       <c r="H6">
-        <v>0.6485594503021019</v>
+        <v>0.2194118657592625</v>
       </c>
       <c r="I6">
-        <v>0.4834736521824823</v>
+        <v>0.2078037110367248</v>
       </c>
       <c r="J6">
-        <v>0.1623190479273333</v>
+        <v>0.05862499352249273</v>
       </c>
       <c r="K6">
-        <v>0.9554337139689721</v>
+        <v>2.805479317313313</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3272528588542656</v>
+        <v>0.6219225509464863</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.229822333130556</v>
+        <v>0.8379533131375183</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02157274262954445</v>
+        <v>0.06319410405968284</v>
       </c>
       <c r="D7">
-        <v>0.2272739403257162</v>
+        <v>0.137701665503414</v>
       </c>
       <c r="E7">
-        <v>0.1635332051539109</v>
+        <v>0.07291331722358407</v>
       </c>
       <c r="F7">
-        <v>1.020499827085025</v>
+        <v>0.4143857906770592</v>
       </c>
       <c r="G7">
-        <v>0.4833579827423833</v>
+        <v>0.2027768377719426</v>
       </c>
       <c r="H7">
-        <v>0.6461146018204289</v>
+        <v>0.2173038361476642</v>
       </c>
       <c r="I7">
-        <v>0.4818270440380878</v>
+        <v>0.2087937287806092</v>
       </c>
       <c r="J7">
-        <v>0.1617205537187623</v>
+        <v>0.05830962487421587</v>
       </c>
       <c r="K7">
-        <v>1.000270517504816</v>
+        <v>2.941551319562421</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3367669763140881</v>
+        <v>0.6525626396846249</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.220004330001487</v>
+        <v>0.8335224644590085</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0256819531550434</v>
+        <v>0.07581510809400527</v>
       </c>
       <c r="D8">
-        <v>0.2308247872898335</v>
+        <v>0.1554433673867806</v>
       </c>
       <c r="E8">
-        <v>0.1630314908689314</v>
+        <v>0.07728502227658041</v>
       </c>
       <c r="F8">
-        <v>1.007618161075705</v>
+        <v>0.4219062156203535</v>
       </c>
       <c r="G8">
-        <v>0.4743755965954435</v>
+        <v>0.2045031459651483</v>
       </c>
       <c r="H8">
-        <v>0.63610409505538</v>
+        <v>0.2092690846041094</v>
       </c>
       <c r="I8">
-        <v>0.4753967958012559</v>
+        <v>0.21475221840711</v>
       </c>
       <c r="J8">
-        <v>0.1592937065080875</v>
+        <v>0.05727699927216534</v>
       </c>
       <c r="K8">
-        <v>1.197339402928662</v>
+        <v>3.541412368807869</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3787417667015376</v>
+        <v>0.7878450763790781</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.180365520408841</v>
+        <v>0.8208707691928936</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03366076766420179</v>
+        <v>0.1005796925806237</v>
       </c>
       <c r="D9">
-        <v>0.238421555118137</v>
+        <v>0.1912343145535402</v>
       </c>
       <c r="E9">
-        <v>0.1626878559824014</v>
+        <v>0.08694217235629154</v>
       </c>
       <c r="F9">
-        <v>0.9878716617470857</v>
+        <v>0.4474675914177411</v>
       </c>
       <c r="G9">
-        <v>0.4602996963741646</v>
+        <v>0.2159924642978979</v>
       </c>
       <c r="H9">
-        <v>0.6192715918664433</v>
+        <v>0.1984549975114689</v>
       </c>
       <c r="I9">
-        <v>0.4657995945620712</v>
+        <v>0.232802733617131</v>
       </c>
       <c r="J9">
-        <v>0.1553053321431932</v>
+        <v>0.05666082233632608</v>
       </c>
       <c r="K9">
-        <v>1.580793540683544</v>
+        <v>4.717578680064548</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4609862174437609</v>
+        <v>1.05392743616045</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.115919426327793</v>
+        <v>0.8235132584517402</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03947307542422607</v>
+        <v>0.1188356371435617</v>
       </c>
       <c r="D10">
-        <v>0.2443850109013965</v>
+        <v>0.2182650536854709</v>
       </c>
       <c r="E10">
-        <v>0.162824899877819</v>
+        <v>0.09479775909962029</v>
       </c>
       <c r="F10">
-        <v>0.976734169667381</v>
+        <v>0.4738718808018945</v>
       </c>
       <c r="G10">
-        <v>0.4521302698120166</v>
+        <v>0.2302430728413754</v>
       </c>
       <c r="H10">
-        <v>0.6086117563888322</v>
+        <v>0.1939088021883677</v>
       </c>
       <c r="I10">
-        <v>0.4605930244536225</v>
+        <v>0.2505985281481244</v>
       </c>
       <c r="J10">
-        <v>0.1528456993283243</v>
+        <v>0.05718540083900692</v>
       </c>
       <c r="K10">
-        <v>1.86057213172711</v>
+        <v>5.583773192716137</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.521345545996553</v>
+        <v>1.250467799895645</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.076704727688849</v>
+        <v>0.8448420990007435</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04210619249512604</v>
+        <v>0.1271666137999432</v>
       </c>
       <c r="D11">
-        <v>0.2471800908597288</v>
+        <v>0.2307516204548676</v>
       </c>
       <c r="E11">
-        <v>0.1629716718827616</v>
+        <v>0.09856010272186211</v>
       </c>
       <c r="F11">
-        <v>0.9724011141706512</v>
+        <v>0.4877830658532787</v>
       </c>
       <c r="G11">
-        <v>0.448888640381405</v>
+        <v>0.2381927773971668</v>
       </c>
       <c r="H11">
-        <v>0.6041332457214281</v>
+        <v>0.192669919637467</v>
       </c>
       <c r="I11">
-        <v>0.4586266590234516</v>
+        <v>0.259833020863212</v>
       </c>
       <c r="J11">
-        <v>0.1518291155635865</v>
+        <v>0.05766422601406873</v>
       </c>
       <c r="K11">
-        <v>1.987405336701613</v>
+        <v>5.978804911421037</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5487856039385832</v>
+        <v>1.340244323923358</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.060638543800309</v>
+        <v>0.859381423677064</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04310167963352285</v>
+        <v>0.1303261978499251</v>
       </c>
       <c r="D12">
-        <v>0.2482502607645642</v>
+        <v>0.2355099215721168</v>
       </c>
       <c r="E12">
-        <v>0.163039374896357</v>
+        <v>0.100014033504916</v>
       </c>
       <c r="F12">
-        <v>0.9708659119991339</v>
+        <v>0.4933457741729228</v>
       </c>
       <c r="G12">
-        <v>0.4477296380635636</v>
+        <v>0.2414324248649322</v>
       </c>
       <c r="H12">
-        <v>0.6024906868957274</v>
+        <v>0.1923282044226227</v>
       </c>
       <c r="I12">
-        <v>0.4579400081889347</v>
+        <v>0.2635074309101171</v>
       </c>
       <c r="J12">
-        <v>0.1514588901283496</v>
+        <v>0.05788258458946416</v>
       </c>
       <c r="K12">
-        <v>2.035368082544608</v>
+        <v>6.12858246822077</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5591733717291021</v>
+        <v>1.374305463616636</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.054810240842173</v>
+        <v>0.8656386362779784</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04288735631050145</v>
+        <v>0.1296454928482405</v>
       </c>
       <c r="D13">
-        <v>0.248019260208082</v>
+        <v>0.2344837633031744</v>
       </c>
       <c r="E13">
-        <v>0.1630242549152783</v>
+        <v>0.09969956991583473</v>
       </c>
       <c r="F13">
-        <v>0.9711918446676648</v>
+        <v>0.49213427166017</v>
       </c>
       <c r="G13">
-        <v>0.4479761976196954</v>
+        <v>0.2407242073522298</v>
       </c>
       <c r="H13">
-        <v>0.6028420675223671</v>
+        <v>0.1923959954998935</v>
       </c>
       <c r="I13">
-        <v>0.4580853102746758</v>
+        <v>0.2627079581817213</v>
       </c>
       <c r="J13">
-        <v>0.1515379692396515</v>
+        <v>0.05783386831529569</v>
       </c>
       <c r="K13">
-        <v>2.025041441051258</v>
+        <v>6.096316099784588</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5569363319572886</v>
+        <v>1.366966714681539</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.056054090828837</v>
+        <v>0.8642566793858037</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.042188124492057</v>
+        <v>0.1274264517293631</v>
       </c>
       <c r="D14">
-        <v>0.247267899774485</v>
+        <v>0.2311424739938701</v>
       </c>
       <c r="E14">
-        <v>0.1629769989739955</v>
+        <v>0.09867912070329155</v>
       </c>
       <c r="F14">
-        <v>0.9722726942146735</v>
+        <v>0.4882346748502542</v>
       </c>
       <c r="G14">
-        <v>0.4487919135123022</v>
+        <v>0.2384546010264827</v>
       </c>
       <c r="H14">
-        <v>0.6039970418031331</v>
+        <v>0.1926392039299785</v>
       </c>
       <c r="I14">
-        <v>0.4585690052435112</v>
+        <v>0.260131677491664</v>
       </c>
       <c r="J14">
-        <v>0.1517983615138796</v>
+        <v>0.05768143330345765</v>
       </c>
       <c r="K14">
-        <v>1.991352605456939</v>
+        <v>5.991123173245228</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5496402793663577</v>
+        <v>1.343045187561586</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.060153919031194</v>
+        <v>0.8598808133906033</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04175961286885865</v>
+        <v>0.1260678855862665</v>
       </c>
       <c r="D15">
-        <v>0.2468091950217257</v>
+        <v>0.2290998120663374</v>
       </c>
       <c r="E15">
-        <v>0.1629496316865584</v>
+        <v>0.09805793405926977</v>
       </c>
       <c r="F15">
-        <v>0.9729485069776871</v>
+        <v>0.4858851242283748</v>
       </c>
       <c r="G15">
-        <v>0.4493004960735476</v>
+        <v>0.2370948233155517</v>
       </c>
       <c r="H15">
-        <v>0.6047114468850339</v>
+        <v>0.1928050226301465</v>
       </c>
       <c r="I15">
-        <v>0.4588728358929188</v>
+        <v>0.2585771703430666</v>
       </c>
       <c r="J15">
-        <v>0.1519597785314168</v>
+        <v>0.0575929628837244</v>
       </c>
       <c r="K15">
-        <v>1.970708505240566</v>
+        <v>5.926715283940666</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5451708025481139</v>
+        <v>1.328401349917129</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.0626984907977</v>
+        <v>0.8573000601007124</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03930077119944997</v>
+        <v>0.1182918045036558</v>
       </c>
       <c r="D16">
-        <v>0.2442039931078739</v>
+        <v>0.2174530688296841</v>
       </c>
       <c r="E16">
-        <v>0.1628170054538245</v>
+        <v>0.09455585356697327</v>
       </c>
       <c r="F16">
-        <v>0.977032117839812</v>
+        <v>0.4730027992985271</v>
       </c>
       <c r="G16">
-        <v>0.4523516931886604</v>
+        <v>0.2297545989207421</v>
       </c>
       <c r="H16">
-        <v>0.608911901299777</v>
+        <v>0.1940071390005045</v>
       </c>
       <c r="I16">
-        <v>0.4607296352192591</v>
+        <v>0.2500191051390246</v>
       </c>
       <c r="J16">
-        <v>0.1529141960243194</v>
+        <v>0.05715915159923668</v>
       </c>
       <c r="K16">
-        <v>1.852274179597543</v>
+        <v>5.557980691450609</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5195518625504718</v>
+        <v>1.244609096512306</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.077790422420961</v>
+        <v>0.8439939472791025</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0377895195409792</v>
+        <v>0.1135288782538595</v>
       </c>
       <c r="D17">
-        <v>0.2426267892749649</v>
+        <v>0.2103586417452448</v>
       </c>
       <c r="E17">
-        <v>0.162757255834574</v>
+        <v>0.09245722283965563</v>
       </c>
       <c r="F17">
-        <v>0.9797252506570473</v>
+        <v>0.465601449516214</v>
       </c>
       <c r="G17">
-        <v>0.45434527686065</v>
+        <v>0.2256399998814231</v>
       </c>
       <c r="H17">
-        <v>0.6115837249851666</v>
+        <v>0.1949626308155885</v>
       </c>
       <c r="I17">
-        <v>0.4619718189259032</v>
+        <v>0.245070231520117</v>
       </c>
       <c r="J17">
-        <v>0.153525919922668</v>
+        <v>0.05695626769064077</v>
       </c>
       <c r="K17">
-        <v>1.77950382438479</v>
+        <v>5.332059436595216</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5038304809518053</v>
+        <v>1.193307833430296</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.087503376461427</v>
+        <v>0.8371085451924358</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03691926139219959</v>
+        <v>0.1107917732977342</v>
       </c>
       <c r="D18">
-        <v>0.2417273731553138</v>
+        <v>0.2062958487543796</v>
       </c>
       <c r="E18">
-        <v>0.1627308374296099</v>
+        <v>0.09126778517228473</v>
       </c>
       <c r="F18">
-        <v>0.9813432951427004</v>
+        <v>0.4615218227176499</v>
       </c>
       <c r="G18">
-        <v>0.4555365967101608</v>
+        <v>0.2234103093967121</v>
       </c>
       <c r="H18">
-        <v>0.6131553765818367</v>
+        <v>0.1955897318390285</v>
       </c>
       <c r="I18">
-        <v>0.462724131987013</v>
+        <v>0.2423301151176567</v>
       </c>
       <c r="J18">
-        <v>0.1538873965696617</v>
+        <v>0.05686202316679356</v>
       </c>
       <c r="K18">
-        <v>1.737607054868874</v>
+        <v>5.202206331434525</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4947863297692408</v>
+        <v>1.163834718501974</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.093256832218614</v>
+        <v>0.8335999355961121</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03662443207345234</v>
+        <v>0.1098654187735804</v>
       </c>
       <c r="D19">
-        <v>0.2414241803112276</v>
+        <v>0.2049232273001849</v>
       </c>
       <c r="E19">
-        <v>0.162723258213088</v>
+        <v>0.09086803085510908</v>
       </c>
       <c r="F19">
-        <v>0.9819029874307788</v>
+        <v>0.4601703685458034</v>
       </c>
       <c r="G19">
-        <v>0.4559476197349142</v>
+        <v>0.2226783520522844</v>
       </c>
       <c r="H19">
-        <v>0.613693501564903</v>
+        <v>0.1958151323167314</v>
       </c>
       <c r="I19">
-        <v>0.4629853472453789</v>
+        <v>0.2414202205015563</v>
       </c>
       <c r="J19">
-        <v>0.1540114395734804</v>
+        <v>0.05683389574889475</v>
       </c>
       <c r="K19">
-        <v>1.723414547939228</v>
+        <v>5.158254604359286</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4917238755191136</v>
+        <v>1.153861131214327</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.095233484174358</v>
+        <v>0.8324879137936136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03795050139204648</v>
+        <v>0.1140356436937395</v>
       </c>
       <c r="D20">
-        <v>0.2427938839448274</v>
+        <v>0.2111120022033646</v>
       </c>
       <c r="E20">
-        <v>0.1627627938210416</v>
+        <v>0.09267878554791409</v>
       </c>
       <c r="F20">
-        <v>0.9794314169782083</v>
+        <v>0.4663708197113223</v>
       </c>
       <c r="G20">
-        <v>0.4541284320090426</v>
+        <v>0.2260637067067179</v>
       </c>
       <c r="H20">
-        <v>0.6112956935233456</v>
+        <v>0.1948528357395318</v>
       </c>
       <c r="I20">
-        <v>0.4618356688171694</v>
+        <v>0.2455859448526141</v>
       </c>
       <c r="J20">
-        <v>0.1534598041346591</v>
+        <v>0.05697552407490747</v>
       </c>
       <c r="K20">
-        <v>1.787254637615661</v>
+        <v>5.35609942918353</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5055042220417363</v>
+        <v>1.198765338851743</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.086452145517967</v>
+        <v>0.8377943660241129</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0423935500747632</v>
+        <v>0.1280780982474283</v>
       </c>
       <c r="D21">
-        <v>0.2474882748683314</v>
+        <v>0.2321230585957608</v>
       </c>
       <c r="E21">
-        <v>0.1629905502955431</v>
+        <v>0.09897804141555966</v>
       </c>
       <c r="F21">
-        <v>0.9719523543909574</v>
+        <v>0.4893718991301483</v>
       </c>
       <c r="G21">
-        <v>0.4485504558625379</v>
+        <v>0.239114865139932</v>
       </c>
       <c r="H21">
-        <v>0.6036563494008647</v>
+        <v>0.1925642415293964</v>
       </c>
       <c r="I21">
-        <v>0.4584253579069184</v>
+        <v>0.2608834622796721</v>
       </c>
       <c r="J21">
-        <v>0.1517214779894012</v>
+        <v>0.05772518122046222</v>
       </c>
       <c r="K21">
-        <v>2.001249654824392</v>
+        <v>6.022015421174842</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5517833984405911</v>
+        <v>1.350069666417681</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.058942757399976</v>
+        <v>0.8611452513923297</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04528789230201369</v>
+        <v>0.1372843130886992</v>
       </c>
       <c r="D22">
-        <v>0.2506246793177667</v>
+        <v>0.2460306532474732</v>
       </c>
       <c r="E22">
-        <v>0.163210060090119</v>
+        <v>0.1032663023280023</v>
       </c>
       <c r="F22">
-        <v>0.9676801326532427</v>
+        <v>0.5061341279799763</v>
       </c>
       <c r="G22">
-        <v>0.4453045107680893</v>
+        <v>0.2489902960925292</v>
       </c>
       <c r="H22">
-        <v>0.5989746185869436</v>
+        <v>0.1918154342730176</v>
       </c>
       <c r="I22">
-        <v>0.4565344762192396</v>
+        <v>0.2719229589463481</v>
       </c>
       <c r="J22">
-        <v>0.1506712644024617</v>
+        <v>0.05843229283894402</v>
       </c>
       <c r="K22">
-        <v>2.140720301982356</v>
+        <v>6.458346906163513</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5820106471873316</v>
+        <v>1.449339077169697</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.042454001770821</v>
+        <v>0.8808153830367189</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0437440067165511</v>
+        <v>0.132367794520448</v>
       </c>
       <c r="D23">
-        <v>0.2489444993508982</v>
+        <v>0.2385909410496936</v>
       </c>
       <c r="E23">
-        <v>0.163086444126499</v>
+        <v>0.1009611816879392</v>
       </c>
       <c r="F23">
-        <v>0.9699039006028869</v>
+        <v>0.4970220028480554</v>
       </c>
       <c r="G23">
-        <v>0.4470002808715066</v>
+        <v>0.2435900808230045</v>
       </c>
       <c r="H23">
-        <v>0.6014448716034977</v>
+        <v>0.1921438927086641</v>
       </c>
       <c r="I23">
-        <v>0.4575127055973169</v>
+        <v>0.2659308864467675</v>
       </c>
       <c r="J23">
-        <v>0.1512239183044564</v>
+        <v>0.05803415336520956</v>
       </c>
       <c r="K23">
-        <v>2.066318643445015</v>
+        <v>6.225350726325303</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5658797327065912</v>
+        <v>1.396317975466857</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.051117779431749</v>
+        <v>0.8698941491328043</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03787772591526561</v>
+        <v>0.1138065314885068</v>
       </c>
       <c r="D24">
-        <v>0.2427183175767169</v>
+        <v>0.2107713586458573</v>
       </c>
       <c r="E24">
-        <v>0.162760265387444</v>
+        <v>0.09257856396082786</v>
       </c>
       <c r="F24">
-        <v>0.9795640420035028</v>
+        <v>0.4660224423998258</v>
       </c>
       <c r="G24">
-        <v>0.4542263268484135</v>
+        <v>0.2258717270871315</v>
       </c>
       <c r="H24">
-        <v>0.6114258017068579</v>
+        <v>0.1949022324508149</v>
       </c>
       <c r="I24">
-        <v>0.4618971034107204</v>
+        <v>0.2453524646518588</v>
       </c>
       <c r="J24">
-        <v>0.1534896645938026</v>
+        <v>0.05696674869155416</v>
       </c>
       <c r="K24">
-        <v>1.783750682001539</v>
+        <v>5.345230852073826</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5047475414626774</v>
+        <v>1.196297937151783</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.086926879567216</v>
+        <v>0.8374829092770426</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0315109216842302</v>
+        <v>0.09387342839993096</v>
       </c>
       <c r="D25">
-        <v>0.2362990283982924</v>
+        <v>0.1814323979483419</v>
       </c>
       <c r="E25">
-        <v>0.1627123588362167</v>
+        <v>0.08420366372816801</v>
       </c>
       <c r="F25">
-        <v>0.9926223695293288</v>
+        <v>0.4392920226792114</v>
       </c>
       <c r="G25">
-        <v>0.4637272238860888</v>
+        <v>0.2119301349347396</v>
       </c>
       <c r="H25">
-        <v>0.6235255498984031</v>
+        <v>0.2008129605723994</v>
       </c>
       <c r="I25">
-        <v>0.4680725519228268</v>
+        <v>0.227172967471585</v>
       </c>
       <c r="J25">
-        <v>0.1563017041857329</v>
+        <v>0.05666489225902893</v>
       </c>
       <c r="K25">
-        <v>1.477392217004478</v>
+        <v>4.399198665964718</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.438746714777821</v>
+        <v>0.9818042435652217</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.13192790136506</v>
+        <v>0.8195952739295933</v>
       </c>
     </row>
   </sheetData>
